--- a/Спецификация/Спецификация.xlsx
+++ b/Спецификация/Спецификация.xlsx
@@ -7,17 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Спецификация ТП-2.1" sheetId="1" r:id="rId1"/>
-    <sheet name="Спецификация ТП-2.2" sheetId="2" r:id="rId2"/>
+    <sheet name="Спецификация ТП-3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
-  <si>
-    <t>Спецификация по тентовому полотну ТП-2.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+  <si>
+    <t>Спецификация по тентовому полотну ТП-3</t>
   </si>
   <si>
     <t>Поз</t>
@@ -47,28 +46,34 @@
     <t>Площадь итого, м2</t>
   </si>
   <si>
-    <t>ПП-2.1</t>
+    <t>ТП-3</t>
   </si>
   <si>
     <t>ПВХ - 900 г/м2</t>
   </si>
   <si>
-    <t>ПП-2.2</t>
-  </si>
-  <si>
-    <t>Н-2.1</t>
-  </si>
-  <si>
-    <t>Н-2.2</t>
-  </si>
-  <si>
-    <t>Итого ТП-2.1:</t>
-  </si>
-  <si>
-    <t>Спецификация по тентовому полотну ТП-2.2</t>
-  </si>
-  <si>
-    <t>Итого ТП-2.2:</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Н-3-1</t>
+  </si>
+  <si>
+    <t>В-3-1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>В-3-2</t>
+  </si>
+  <si>
+    <t>В-3-3</t>
+  </si>
+  <si>
+    <t>КМ-3-1</t>
+  </si>
+  <si>
+    <t>Итого ТП-3:</t>
   </si>
 </sst>
 </file>
@@ -78,7 +83,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="164" formatCode="#0"/>
-    <numFmt numFmtId="165" formatCode="#0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="164" formatCode="#0"/>
   </numFmts>
   <fonts count="2">
@@ -98,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -133,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,11 +155,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +473,7 @@
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +485,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -501,366 +516,218 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
-        <v>3010</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2970</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
+      <c r="D3" s="5">
+        <v>11700</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7611.647640640138</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="3">
-        <f>F3*2</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+        <f>F3*1</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <f>D3*E3 / 1000000</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f>H3*G3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>11700</v>
+      </c>
+      <c r="E4" s="5">
+        <v>700</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2970</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
       <c r="G4" s="3">
-        <f>F4*2</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+        <f>F4*1</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <f>D4*E4 / 1000000</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f>H4*G4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
-        <v>700</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3260</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="3">
-        <f>F5*2</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+        <f>F5*1</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <f>D5*E5 / 1000000</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f>H5*G5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
-        <v>700</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6480</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="3">
-        <f>F6*2</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+        <f>F6*1</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <f>D6*E6 / 1000000</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <f>H6*G6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3">
-        <f>SUM(I3:I6)</f>
+      <c r="G7" s="3">
+        <f>F7*1</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f>D7*E7 / 1000000</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>H7*G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>150</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <f>F8*1</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f>D8*E8 / 1000000</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f>H8*G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5">
+        <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3010</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2970</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>F3*1</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <f>D3*E3 / 1000000</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <f>H3*G3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2970</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <f>F4*1</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f>D4*E4 / 1000000</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f>H4*G4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
-        <v>700</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3260</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <f>F5*1</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f>D5*E5 / 1000000</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <f>H5*G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
-        <v>700</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6480</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <f>F6*1</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <f>D6*E6 / 1000000</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f>H6*G6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3">
-        <f>SUM(I3:I6)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
